--- a/src/main/resources/validation/2.xlsx
+++ b/src/main/resources/validation/2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristopher\OneDrive\Documentos\U\CAF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\001812815\Documents\GitHub\conversor-coordenadas\src\main\resources\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C539376E-694F-420C-A22C-DB5DAC47C9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22382AB9-E519-4CEA-8370-211B730A272E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1380" yWindow="3195" windowWidth="15375" windowHeight="8325" activeTab="1" xr2:uid="{1512A3DC-0F14-42C8-A9DB-8724E702387B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{1512A3DC-0F14-42C8-A9DB-8724E702387B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1108,7 +1108,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1410,14 +1410,14 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>21306.487000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>21318.191999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>21622.6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>21734.275000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>21200.932000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>21381.716</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>21381.663</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>21385.484</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>21384.712</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>21384.686000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>21475.656999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>21476.054</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>21381.981</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>21385.280999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>21381.713</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>21385.231</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>21384.48</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>21384.686000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>65</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>24</v>
       </c>
@@ -1943,26 +1943,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C41F69D-387D-40EB-A534-392D3D82B877}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="28.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="5" max="5" width="26.54296875" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.54296875" customWidth="1"/>
+    <col min="11" max="11" width="11.7265625" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D1" s="12" t="s">
         <v>34</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="M2" s="13"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>32</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>6379069.8827894721</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -2100,20 +2100,20 @@
         <v>6379070.6345934328</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E8" s="14" t="s">
         <v>53</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>32.966301544381174</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>-6079229.0404822696</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>-1324966.660401474</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -2236,13 +2236,13 @@
         <v>6.6943800667646578E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C15" s="1"/>
     </row>
   </sheetData>
@@ -2266,17 +2266,17 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" customWidth="1"/>
+    <col min="11" max="11" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>32</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>-0.97451669078386016</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>33</v>
@@ -2385,7 +2385,7 @@
         <v>-0.97451343728701301</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>45</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>1399350.1857720478</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>46</v>
       </c>
@@ -2403,12 +2403,12 @@
         <v>-6079353.1869744398</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="16"/>
       <c r="C17" s="17"/>
       <c r="D17" s="7" t="s">
@@ -2421,7 +2421,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>68</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>69</v>
       </c>
